--- a/Ordinamento.xlsx
+++ b/Ordinamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835248A7-9983-4459-B1EB-8BE0C249FE96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63A5A580-16C9-4649-8202-1A19BBC07C24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="45">
   <si>
     <t>Ordinamento</t>
   </si>
@@ -2033,985 +2033,1078 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC62486-CF66-4CB3-BF0E-B79BC90DA060}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>125</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
         <v>25</v>
       </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>131</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>133</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
         <v>24</v>
       </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>135</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
         <v>25</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>137</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>26</v>
       </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>139</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="O10">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
       <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="P11">
         <v>9</v>
       </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>143</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
       <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="R12">
         <v>6</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>24</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>145</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
       </c>
       <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>9</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>147</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14" t="s">
         <v>26</v>
       </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
         <v>27</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>28</v>
       </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="N17">
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="O17">
         <v>9</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>24</v>
       </c>
-      <c r="S17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>155</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
+      <c r="C18" t="s">
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
         <v>25</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>157</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>26</v>
       </c>
-      <c r="S19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>159</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
         <v>27</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>161</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>8</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s">
         <v>28</v>
       </c>
-      <c r="S21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>163</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
       </c>
       <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
         <v>6</v>
       </c>
-      <c r="P22">
-        <v>8</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="S22" t="s">
         <v>24</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>165</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
       <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
         <v>9</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>25</v>
       </c>
-      <c r="S23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>167</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="P24">
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
         <v>9</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="M25">
         <v>9</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>7</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="S25" t="s">
         <v>27</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
       <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
         <v>28</v>
       </c>
-      <c r="S26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>173</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>8</v>
-      </c>
-      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="S27" t="s">
         <v>24</v>
       </c>
-      <c r="S27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>175</v>
       </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s">
         <v>25</v>
       </c>
-      <c r="S28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>177</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29">
         <v>6</v>
       </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="S29" t="s">
         <v>26</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>179</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30">
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30">
         <v>9</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>27</v>
       </c>
-      <c r="S30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>181</v>
       </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="S31" t="s">
         <v>28</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Ordinamento.xlsx
+++ b/Ordinamento.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$B$18:$U$48</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -3256,7 +3254,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>125</v>
@@ -3292,7 +3290,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>127</v>
@@ -3328,7 +3326,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>129</v>
@@ -3404,7 +3402,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>133</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>135</v>
@@ -3484,7 +3482,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>137</v>
@@ -3530,7 +3528,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>139</v>
@@ -3576,7 +3574,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>141</v>
@@ -3626,7 +3624,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
         <v>143</v>
@@ -3678,7 +3676,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>145</v>
@@ -3730,7 +3728,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>147</v>
@@ -3780,7 +3778,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
         <v>149</v>
@@ -3830,7 +3828,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>151</v>
@@ -3876,7 +3874,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>153</v>
@@ -3922,7 +3920,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
         <v>155</v>
@@ -3968,7 +3966,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>157</v>
@@ -4010,7 +4008,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>159</v>
@@ -4054,7 +4052,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>161</v>
@@ -4098,7 +4096,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
         <v>163</v>
@@ -4146,7 +4144,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
         <v>165</v>
@@ -4194,7 +4192,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>167</v>
@@ -4242,7 +4240,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>169</v>
@@ -4286,7 +4284,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>171</v>
@@ -4330,7 +4328,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>173</v>
@@ -4370,7 +4368,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>175</v>
@@ -4406,7 +4404,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>177</v>
@@ -4442,7 +4440,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>179</v>
@@ -4476,7 +4474,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>181</v>

--- a/Ordinamento.xlsx
+++ b/Ordinamento.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Ordinamento.xlsx
+++ b/Ordinamento.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Calcolo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>125</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>127</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>133</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>135</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>141</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>143</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
         <v>145</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>147</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>149</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>151</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
         <v>153</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
         <v>155</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
         <v>157</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
         <v>159</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
         <v>161</v>
